--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap\Capstone Project\DoAnJSSu16\201605JS01\WIP\Users\LinhNH\Veazy_Unit_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="getLesson" sheetId="18" r:id="rId12"/>
     <sheet name="getVersionOfLesson" sheetId="20" r:id="rId13"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId14"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ACTION" localSheetId="10">#REF!</definedName>
     <definedName name="ACTION" localSheetId="11">#REF!</definedName>
@@ -222,7 +219,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyen Hoang Anh</author>
@@ -261,11 +258,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MinhNN</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+lam gi duoc 100case/kloc</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
+    <author>MinhNN</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0">
@@ -293,6 +325,30 @@
             <family val="2"/>
           </rPr>
           <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MinhNN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+xoa het case trong</t>
         </r>
       </text>
     </comment>
@@ -535,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="195">
   <si>
     <r>
       <rPr>
@@ -1642,7 +1698,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2081,6 +2137,19 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3918,6 +3987,12 @@
     <xf numFmtId="14" fontId="44" fillId="29" borderId="16" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3994,6 +4069,87 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="30" borderId="81" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4003,15 +4159,9 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="83" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="48" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4042,81 +4192,6 @@
     <xf numFmtId="0" fontId="34" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="38" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="70" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="73" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="46" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="48" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="80" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4134,12 +4209,6 @@
     </xf>
     <xf numFmtId="49" fontId="38" fillId="30" borderId="83" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5832,98 +5901,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ガイドライン"/>
-      <sheetName val="表紙"/>
-      <sheetName val="機能一覧"/>
-      <sheetName val="テスト報告"/>
-      <sheetName val="getCourses"/>
-      <sheetName val="findLearnerExams"/>
-      <sheetName val="saveExam"/>
-      <sheetName val="findExamById"/>
-      <sheetName val="createLesson"/>
-      <sheetName val="getLessonVersion"/>
-      <sheetName val="updateLesson"/>
-      <sheetName val="generateTest"/>
-      <sheetName val="saveQuestion"/>
-      <sheetName val="findQuestionById"/>
-      <sheetName val="findQuestionByCode"/>
-      <sheetName val="findAllQuestion"/>
-      <sheetName val="updateQuestion"/>
-      <sheetName val="deleteQuestion"/>
-      <sheetName val="saveReport"/>
-      <sheetName val="getReport"/>
-      <sheetName val="getAllReports"/>
-      <sheetName val="readReport"/>
-      <sheetName val="deleteReport"/>
-      <sheetName val="saveUser"/>
-      <sheetName val="findUserById"/>
-      <sheetName val="findUserByEmail"/>
-      <sheetName val="findUserByUsername"/>
-      <sheetName val="findAllUser"/>
-      <sheetName val="updateUser"/>
-      <sheetName val="changeUserRoll"/>
-      <sheetName val="changePassword"/>
-      <sheetName val="Example"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Veazy</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="E6">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6513,55 +6490,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -6570,117 +6547,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>26</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -6693,15 +6669,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -7387,11 +7363,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -7419,11 +7395,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -7451,11 +7427,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -7483,11 +7459,11 @@
     </row>
     <row r="40" spans="1:20" ht="11.25" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -7513,25 +7489,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -7540,6 +7497,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
@@ -7590,55 +7566,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -7647,117 +7623,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>28</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>2</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -7770,15 +7745,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>2</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -8450,11 +8425,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -8478,11 +8453,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -8506,11 +8481,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -8534,11 +8509,11 @@
     </row>
     <row r="40" spans="1:20" ht="11.25" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -8564,25 +8539,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -8591,6 +8547,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
@@ -8616,7 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -8641,55 +8616,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -8698,117 +8673,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>27</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -8821,15 +8795,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -9509,11 +9483,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -9539,11 +9513,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -9569,11 +9543,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -9599,11 +9573,11 @@
     </row>
     <row r="40" spans="1:20" ht="11.25" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -9629,25 +9603,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9656,6 +9611,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
@@ -9681,7 +9655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -9704,55 +9678,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>152</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -9761,117 +9735,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>27</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -9884,15 +9857,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -10566,11 +10539,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -10596,11 +10569,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -10626,11 +10599,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -10656,11 +10629,11 @@
     </row>
     <row r="40" spans="1:20" ht="11.25" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -10686,25 +10659,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10713,6 +10667,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
@@ -10738,7 +10711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -10755,13 +10728,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="168" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="167"/>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="169"/>
@@ -10772,11 +10745,11 @@
       <c r="A4" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="211" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
       <c r="E4" s="174" t="s">
         <v>2</v>
       </c>
@@ -10788,25 +10761,25 @@
       <c r="A5" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="212" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
       <c r="E5" s="173" t="s">
         <v>187</v>
       </c>
       <c r="F5" s="175"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="174" t="s">
         <v>6</v>
       </c>
@@ -10815,10 +10788,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="211"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
       <c r="E7" s="174" t="s">
         <v>7</v>
       </c>
@@ -10952,11 +10925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F11:F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10990,42 +10963,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215" t="str">
-        <f>[1]表紙!B4</f>
-        <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
-      </c>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="217"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="217" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="219"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215" t="str">
-        <f>[1]表紙!B5</f>
-        <v>Veazy</v>
-      </c>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="217"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="219"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="223" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="223"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -11034,18 +11005,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="218" t="s">
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="222"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -11107,7 +11078,7 @@
       <c r="E11" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="282" t="s">
+      <c r="F11" s="209" t="s">
         <v>129</v>
       </c>
       <c r="G11" s="27"/>
@@ -11127,7 +11098,7 @@
       <c r="E12" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="281" t="s">
+      <c r="F12" s="208" t="s">
         <v>138</v>
       </c>
       <c r="G12" s="27"/>
@@ -11147,7 +11118,7 @@
       <c r="E13" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="281" t="s">
+      <c r="F13" s="208" t="s">
         <v>140</v>
       </c>
       <c r="G13" s="27"/>
@@ -11167,7 +11138,7 @@
       <c r="E14" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="281" t="s">
+      <c r="F14" s="208" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="27"/>
@@ -11187,7 +11158,7 @@
       <c r="E15" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="281" t="s">
+      <c r="F15" s="208" t="s">
         <v>144</v>
       </c>
       <c r="G15" s="27"/>
@@ -11207,7 +11178,7 @@
       <c r="E16" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="281" t="s">
+      <c r="F16" s="208" t="s">
         <v>146</v>
       </c>
       <c r="G16" s="29"/>
@@ -11227,7 +11198,7 @@
       <c r="E17" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="208" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="29"/>
@@ -11247,7 +11218,7 @@
       <c r="E18" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="281" t="s">
+      <c r="F18" s="208" t="s">
         <v>150</v>
       </c>
       <c r="G18" s="29"/>
@@ -11267,7 +11238,7 @@
       <c r="E19" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="281" t="s">
+      <c r="F19" s="208" t="s">
         <v>151</v>
       </c>
       <c r="G19" s="29"/>
@@ -11340,6 +11311,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10 08j-BM/PM/FSOFT v1/0&amp;C社外秘&amp;R&amp;"Arial,Regular"&amp;10&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11347,8 +11319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11365,17 +11337,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -11392,72 +11364,72 @@
       <c r="A4" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="226" t="str">
+      <c r="B4" s="228" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="226"/>
-      <c r="D4" s="227" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="230"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="232"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="226" t="str">
+      <c r="B5" s="228" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="227" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="230"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="226" t="str">
+      <c r="B6" s="228" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="227" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="229" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="227"/>
-      <c r="F6" s="231">
+      <c r="E6" s="229"/>
+      <c r="F6" s="233">
         <v>42585</v>
       </c>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="233"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="235"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="224"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -11525,7 +11497,7 @@
       <c r="A12" s="47">
         <v>1</v>
       </c>
-      <c r="B12" s="282" t="s">
+      <c r="B12" s="209" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="48">
@@ -11561,7 +11533,7 @@
       <c r="A13" s="47">
         <v>2</v>
       </c>
-      <c r="B13" s="281" t="s">
+      <c r="B13" s="208" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="48">
@@ -11597,7 +11569,7 @@
       <c r="A14" s="47">
         <v>3</v>
       </c>
-      <c r="B14" s="281" t="s">
+      <c r="B14" s="208" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="48">
@@ -11633,7 +11605,7 @@
       <c r="A15" s="47">
         <v>4</v>
       </c>
-      <c r="B15" s="281" t="s">
+      <c r="B15" s="208" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="48">
@@ -11669,7 +11641,7 @@
       <c r="A16" s="47">
         <v>5</v>
       </c>
-      <c r="B16" s="281" t="s">
+      <c r="B16" s="208" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="48">
@@ -11705,7 +11677,7 @@
       <c r="A17" s="47">
         <v>6</v>
       </c>
-      <c r="B17" s="281" t="s">
+      <c r="B17" s="208" t="s">
         <v>146</v>
       </c>
       <c r="C17" s="48">
@@ -11741,7 +11713,7 @@
       <c r="A18" s="47">
         <v>7</v>
       </c>
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="208" t="s">
         <v>148</v>
       </c>
       <c r="C18" s="48">
@@ -11777,7 +11749,7 @@
       <c r="A19" s="47">
         <v>8</v>
       </c>
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="208" t="s">
         <v>150</v>
       </c>
       <c r="C19" s="48">
@@ -11813,7 +11785,7 @@
       <c r="A20" s="47">
         <v>9</v>
       </c>
-      <c r="B20" s="281" t="s">
+      <c r="B20" s="208" t="s">
         <v>151</v>
       </c>
       <c r="C20" s="48">
@@ -12002,7 +11974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -12025,57 +11999,57 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="248" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="275" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="249"/>
+      <c r="D2" s="276"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="268" t="s">
+      <c r="F2" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="234" t="s">
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
       <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -12084,117 +12058,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>22</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F37:HQ37,"P")</f>
         <v>8</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F37:HQ37,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E36:HQ36,"N")</f>
         <v>1</v>
@@ -12207,15 +12180,15 @@
         <f>COUNTIF(E36:HQ36,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>8</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="87"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1">
@@ -12942,11 +12915,11 @@
       <c r="A36" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
       <c r="E36" s="139"/>
       <c r="F36" s="140" t="s">
         <v>49</v>
@@ -12982,11 +12955,11 @@
     </row>
     <row r="37" spans="1:20" ht="13.5" customHeight="1">
       <c r="A37" s="161"/>
-      <c r="B37" s="265" t="s">
+      <c r="B37" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="265"/>
-      <c r="D37" s="265"/>
+      <c r="C37" s="261"/>
+      <c r="D37" s="261"/>
       <c r="E37" s="143"/>
       <c r="F37" s="144" t="s">
         <v>53</v>
@@ -13022,11 +12995,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="266" t="s">
+      <c r="B38" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
+      <c r="C38" s="262"/>
+      <c r="D38" s="262"/>
       <c r="E38" s="132"/>
       <c r="F38" s="146">
         <v>39139</v>
@@ -13062,11 +13035,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A39" s="162"/>
-      <c r="B39" s="250" t="s">
+      <c r="B39" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="250"/>
-      <c r="D39" s="250"/>
+      <c r="C39" s="247"/>
+      <c r="D39" s="247"/>
       <c r="E39" s="148"/>
       <c r="F39" s="149"/>
       <c r="G39" s="149"/>
@@ -13091,14 +13064,14 @@
     <row r="43" spans="1:20" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A6:B6"/>
@@ -13110,14 +13083,14 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -13170,56 +13143,56 @@
       <c r="D1" s="164"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="248" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="275" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="249"/>
+      <c r="D2" s="276"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="268" t="s">
+      <c r="F2" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="234" t="s">
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="263" t="s">
         <v>137</v>
       </c>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -13228,117 +13201,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>21</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="86"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>9</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -13351,15 +13323,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>9</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="87"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1">
@@ -14137,11 +14109,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -14179,11 +14151,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -14221,11 +14193,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -14263,11 +14235,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -14295,6 +14267,18 @@
     <row r="43" spans="1:20" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:T2"/>
@@ -14310,18 +14294,6 @@
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C5:T5"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -14348,7 +14320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -14373,55 +14345,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="248" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="275" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="268" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="234" t="s">
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="236"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -14430,117 +14402,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>18</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F39:HQ39,"P")</f>
         <v>12</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F39:HQ39,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E38:HQ38,"N")</f>
         <v>2</v>
@@ -14553,15 +14524,15 @@
         <f>COUNTIF(E38:HQ38,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>12</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -15343,11 +15314,11 @@
       <c r="A38" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="264"/>
-      <c r="D38" s="264"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
       <c r="E38" s="139"/>
       <c r="F38" s="140" t="s">
         <v>49</v>
@@ -15391,11 +15362,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="265"/>
-      <c r="D39" s="265"/>
+      <c r="C39" s="261"/>
+      <c r="D39" s="261"/>
       <c r="E39" s="143"/>
       <c r="F39" s="144" t="s">
         <v>53</v>
@@ -15439,11 +15410,11 @@
     </row>
     <row r="40" spans="1:20" ht="13.5" customHeight="1">
       <c r="A40" s="161"/>
-      <c r="B40" s="266" t="s">
+      <c r="B40" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="266"/>
-      <c r="D40" s="266"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="262"/>
       <c r="E40" s="132"/>
       <c r="F40" s="146">
         <v>39139</v>
@@ -15487,11 +15458,11 @@
     </row>
     <row r="41" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="162"/>
-      <c r="B41" s="250" t="s">
+      <c r="B41" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="250"/>
-      <c r="D41" s="250"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="148"/>
       <c r="F41" s="149"/>
       <c r="G41" s="149"/>
@@ -15519,14 +15490,9 @@
     <row r="44" spans="1:20" ht="10.5"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B41:D41"/>
@@ -15543,9 +15509,14 @@
     <mergeCell ref="C5:T5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O7:T7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
@@ -15595,55 +15566,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -15652,117 +15623,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>26</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F36:HQ36,"P")</f>
         <v>4</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F36:HQ36,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E35:HQ35,"N")</f>
         <v>1</v>
@@ -15775,15 +15745,15 @@
         <f>COUNTIF(E35:HQ35,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>4</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -16430,11 +16400,11 @@
       <c r="A35" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="260"/>
       <c r="E35" s="139"/>
       <c r="F35" s="140" t="s">
         <v>51</v>
@@ -16462,11 +16432,11 @@
     </row>
     <row r="36" spans="1:20" ht="13.5" customHeight="1">
       <c r="A36" s="161"/>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="265"/>
-      <c r="D36" s="265"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261"/>
       <c r="E36" s="143"/>
       <c r="F36" s="144" t="s">
         <v>53</v>
@@ -16494,11 +16464,11 @@
     </row>
     <row r="37" spans="1:20" ht="13.5" customHeight="1">
       <c r="A37" s="161"/>
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="266"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="262"/>
       <c r="E37" s="132"/>
       <c r="F37" s="146">
         <v>39139</v>
@@ -16526,11 +16496,11 @@
     </row>
     <row r="38" spans="1:20" ht="11.25" thickBot="1">
       <c r="A38" s="162"/>
-      <c r="B38" s="250" t="s">
+      <c r="B38" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="247"/>
       <c r="E38" s="148"/>
       <c r="F38" s="149"/>
       <c r="G38" s="149"/>
@@ -16556,25 +16526,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -16583,6 +16534,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:T35">
@@ -16633,55 +16603,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="277" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="249"/>
-      <c r="F2" s="276" t="s">
+      <c r="D2" s="276"/>
+      <c r="F2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="278" t="s">
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="280" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="281"/>
+      <c r="S2" s="281"/>
+      <c r="T2" s="282"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="251" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="241" t="s">
+      <c r="D3" s="249"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -16690,117 +16660,116 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="273">
+      <c r="B4" s="244"/>
+      <c r="C4" s="245">
         <v>300</v>
       </c>
-      <c r="D4" s="274"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244">
-        <f xml:space="preserve"> IF([1]機能一覧!E6&lt;&gt;"N/A",SUM(C4*[1]機能一覧!E6/1000,- O7),"N/A")</f>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
+      <c r="L4" s="271">
         <v>27</v>
       </c>
-      <c r="M4" s="245"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245"/>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="245"/>
-      <c r="R4" s="245"/>
-      <c r="S4" s="245"/>
-      <c r="T4" s="246"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="256"/>
-      <c r="C5" s="257" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="257"/>
-      <c r="R5" s="257"/>
-      <c r="S5" s="257"/>
-      <c r="T5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="253"/>
+      <c r="N5" s="253"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
     </row>
     <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="238" t="s">
+      <c r="B6" s="252"/>
+      <c r="C6" s="266" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="238" t="s">
+      <c r="D6" s="255"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="266" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="247"/>
-      <c r="L6" s="239" t="s">
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="274"/>
+      <c r="L6" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="262" t="s">
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258" t="s">
         <v>127</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="263"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="259"/>
       <c r="V6" s="100"/>
     </row>
     <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="272">
+      <c r="A7" s="242">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>3</v>
       </c>
-      <c r="B7" s="271"/>
-      <c r="C7" s="269">
+      <c r="B7" s="241"/>
+      <c r="C7" s="238">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269">
+      <c r="D7" s="239"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="238">
         <f>SUM(O7,- A7,- C7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="270"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="240"/>
       <c r="L7" s="101">
         <f>COUNTIF(E37:HQ37,"N")</f>
         <v>1</v>
@@ -16813,15 +16782,15 @@
         <f>COUNTIF(E37:HQ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="259">
+      <c r="O7" s="256">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="260"/>
-      <c r="Q7" s="260"/>
-      <c r="R7" s="260"/>
-      <c r="S7" s="260"/>
-      <c r="T7" s="261"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="257"/>
       <c r="U7" s="102"/>
     </row>
     <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
@@ -17511,11 +17480,11 @@
       <c r="A37" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="139"/>
       <c r="F37" s="140" t="s">
         <v>49</v>
@@ -17541,11 +17510,11 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" customHeight="1">
       <c r="A38" s="161"/>
-      <c r="B38" s="265" t="s">
+      <c r="B38" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="265"/>
-      <c r="D38" s="265"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
       <c r="E38" s="143"/>
       <c r="F38" s="144" t="s">
         <v>53</v>
@@ -17571,11 +17540,11 @@
     </row>
     <row r="39" spans="1:20" ht="13.5" customHeight="1">
       <c r="A39" s="161"/>
-      <c r="B39" s="266" t="s">
+      <c r="B39" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="132"/>
       <c r="F39" s="146">
         <v>39139</v>
@@ -17601,11 +17570,11 @@
     </row>
     <row r="40" spans="1:20" ht="11.25" thickBot="1">
       <c r="A40" s="162"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="250"/>
-      <c r="D40" s="250"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
       <c r="E40" s="148"/>
       <c r="F40" s="149"/>
       <c r="G40" s="149"/>
@@ -17631,25 +17600,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -17658,6 +17608,25 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:T5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -47,8 +47,8 @@
     <definedName name="getLessonVersion" localSheetId="7">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="8">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">createLesson!$A$1:$T$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">getAllLesson!$A$1:$T$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">createLesson!$A$1:$T$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">getAllLesson!$A$1:$T$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">getLessionVersion!$A$1:$T$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">getLesson!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">getLessonsOfCourse!$A$1:$T$39</definedName>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -753,15 +753,6 @@
   </si>
   <si>
     <t>UTCID09</t>
-  </si>
-  <si>
-    <t>UTCID10</t>
-  </si>
-  <si>
-    <t>UTCID11</t>
-  </si>
-  <si>
-    <t>UTCID12</t>
   </si>
   <si>
     <t>null</t>
@@ -1277,9 +1268,6 @@
     <t>creatorId</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>CreateLessonForm</t>
   </si>
   <si>
@@ -1379,9 +1367,6 @@
     <t>valid lesson form</t>
   </si>
   <si>
-    <t>valid lesson form with updating version</t>
-  </si>
-  <si>
     <t>don't have version can be published</t>
   </si>
   <si>
@@ -1400,9 +1385,6 @@
     <t>courseId</t>
   </si>
   <si>
-    <t>No lesson</t>
-  </si>
-  <si>
     <t>GetLessonResponse</t>
   </si>
   <si>
@@ -1422,9 +1404,6 @@
   </si>
   <si>
     <t>lessons have been created</t>
-  </si>
-  <si>
-    <t>no lesson have been created</t>
   </si>
   <si>
     <t>valid lesson Id</t>
@@ -3627,6 +3606,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3838,8 +3819,6 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4095,10 +4074,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4528,10 +4507,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4812,7 +4791,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5249,7 +5228,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5826,7 +5805,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="64" customFormat="1" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="64" customFormat="1" ht="22.5">
@@ -5834,37 +5813,37 @@
     </row>
     <row r="3" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A3" s="65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="72" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -5872,27 +5851,27 @@
     </row>
     <row r="11" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A11" s="65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="75" customFormat="1" ht="15">
       <c r="A12" s="74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5900,136 +5879,136 @@
     </row>
     <row r="17" spans="1:4" s="75" customFormat="1" ht="15">
       <c r="A17" s="74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="73"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="74" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="73"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="67" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" s="73"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="67" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B39" s="73"/>
     </row>
@@ -6039,42 +6018,42 @@
     </row>
     <row r="41" spans="1:2" s="75" customFormat="1" ht="15">
       <c r="A41" s="74" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="67" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6091,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6116,55 +6095,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -6173,90 +6152,90 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234">
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236">
         <v>300</v>
       </c>
-      <c r="D4" s="235"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>26</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>1</v>
@@ -6269,15 +6248,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6305,10 +6284,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -6323,7 +6302,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -6357,7 +6336,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -6372,11 +6351,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -6393,7 +6372,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="110"/>
@@ -6403,13 +6382,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="113"/>
@@ -6419,14 +6398,14 @@
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
       <c r="I17" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -6442,10 +6421,10 @@
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A19" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="122"/>
@@ -6460,11 +6439,11 @@
       <c r="B20" s="125"/>
       <c r="C20" s="126"/>
       <c r="D20" s="127" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E20" s="137"/>
       <c r="F20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
@@ -6475,24 +6454,24 @@
       <c r="B21" s="125"/>
       <c r="C21" s="128"/>
       <c r="D21" s="127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" s="129"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H21" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I21" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="151"/>
       <c r="B22" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="127"/>
@@ -6507,14 +6486,14 @@
       <c r="B23" s="125"/>
       <c r="C23" s="128"/>
       <c r="D23" s="127" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -6522,67 +6501,67 @@
       <c r="B24" s="130"/>
       <c r="C24" s="131"/>
       <c r="D24" s="132" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E24" s="133"/>
       <c r="F24" s="134"/>
       <c r="G24" s="134"/>
       <c r="H24" s="134" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="134"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
+      <c r="B26" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+      <c r="B27" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -6599,11 +6578,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -6666,10 +6645,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6693,55 +6672,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -6750,109 +6729,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>28</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
-        <f>COUNTIF(F21:HD21,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
-        <f>COUNTIF(F21:HD21,"F")</f>
+      <c r="A6" s="233">
+        <f>COUNTIF(F17:HC17,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
+        <f>COUNTIF(F17:HC17,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E20:HD20,"N")</f>
+        <f>COUNTIF(E16:HC16,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E20:HD20,"A")</f>
+        <f>COUNTIF(E16:HC16,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="101">
+        <f>COUNTIF(E16:HC16,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="245">
+        <f>COUNTA(E8:HF8)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="101">
-        <f>COUNTIF(E20:HD20,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="243">
-        <f>COUNTA(E8:HG8)</f>
-        <v>2</v>
-      </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6865,212 +6844,140 @@
       <c r="F8" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="147" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="93"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
       <c r="E9" s="109"/>
       <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="100"/>
+        <v>80</v>
+      </c>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
       <c r="B11" s="106"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="110"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="149"/>
       <c r="B12" s="106"/>
       <c r="C12" s="107"/>
-      <c r="D12" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="112"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="110"/>
-      <c r="G12" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A13" s="149"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="151"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="137"/>
+      <c r="F14" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A15" s="151"/>
       <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="110"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="127" t="s">
+      <c r="C15" s="128"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="110"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A16" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="129"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="151"/>
-      <c r="B17" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="127" t="s">
-        <v>169</v>
-      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A17" s="152"/>
+      <c r="B17" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="250"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="152"/>
+      <c r="B18" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
       <c r="E18" s="129"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="151"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="152"/>
-      <c r="B21" s="248" t="s">
+      <c r="F18" s="140">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A19" s="153"/>
+      <c r="B19" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="140">
-        <v>39139</v>
-      </c>
-      <c r="G22" s="140">
-        <v>39139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="11.25" thickBot="1">
-      <c r="A23" s="153"/>
-      <c r="B23" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" thickTop="1">
-      <c r="A24" s="103"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="95"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A20" s="103"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -7093,21 +7000,21 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F15">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7149,55 +7056,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -7206,88 +7113,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>27</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F26:HE26,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F26:HE26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HE25,"N")</f>
         <v>1</v>
@@ -7300,15 +7207,15 @@
         <f>COUNTIF(E25:HE25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7333,10 +7240,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -7350,7 +7257,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -7381,7 +7288,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7395,11 +7302,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -7415,7 +7322,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H15" s="110"/>
     </row>
@@ -7424,13 +7331,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="113"/>
     </row>
@@ -7446,10 +7353,10 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A18" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="122"/>
@@ -7463,11 +7370,11 @@
       <c r="B19" s="125"/>
       <c r="C19" s="126"/>
       <c r="D19" s="127" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E19" s="137"/>
       <c r="F19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
@@ -7477,21 +7384,21 @@
       <c r="B20" s="125"/>
       <c r="C20" s="128"/>
       <c r="D20" s="127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="151"/>
       <c r="B21" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="128"/>
       <c r="D21" s="127"/>
@@ -7505,15 +7412,15 @@
       <c r="B22" s="125"/>
       <c r="C22" s="128"/>
       <c r="D22" s="127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1">
@@ -7538,49 +7445,49 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
+      <c r="B26" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+      <c r="B27" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -7594,11 +7501,11 @@
     </row>
     <row r="28" spans="1:8" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -7662,7 +7569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -7687,55 +7594,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -7744,88 +7651,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>27</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F24:HE24,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F24:HE24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E23:HE23,"N")</f>
         <v>1</v>
@@ -7838,15 +7745,15 @@
         <f>COUNTIF(E23:HE23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7871,10 +7778,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -7888,7 +7795,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -7919,7 +7826,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7933,11 +7840,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -7953,7 +7860,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H15" s="110"/>
     </row>
@@ -7962,13 +7869,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="113"/>
     </row>
@@ -7984,10 +7891,10 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
       <c r="A18" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="122"/>
@@ -8001,11 +7908,11 @@
       <c r="B19" s="125"/>
       <c r="C19" s="126"/>
       <c r="D19" s="127" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E19" s="137"/>
       <c r="F19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
@@ -8015,25 +7922,25 @@
       <c r="B20" s="125"/>
       <c r="C20" s="128"/>
       <c r="D20" s="127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="151"/>
       <c r="B21" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="270"/>
+        <v>66</v>
+      </c>
+      <c r="C21" s="199"/>
       <c r="D21" s="132"/>
-      <c r="E21" s="271"/>
+      <c r="E21" s="200"/>
       <c r="F21" s="134"/>
       <c r="G21" s="134"/>
       <c r="H21" s="134"/>
@@ -8043,62 +7950,62 @@
       <c r="B22" s="130"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="134"/>
       <c r="G22" s="134" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A23" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B23" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="135"/>
       <c r="F23" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G23" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="248"/>
-      <c r="D24" s="248"/>
+      <c r="B24" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="138"/>
       <c r="F24" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H24" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
+      <c r="B25" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
       <c r="E25" s="129"/>
       <c r="F25" s="140">
         <v>39139</v>
@@ -8112,11 +8019,11 @@
     </row>
     <row r="26" spans="1:8" ht="11.25" thickBot="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="B26" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="238"/>
+      <c r="D26" s="238"/>
       <c r="E26" s="141"/>
       <c r="F26" s="142"/>
       <c r="G26" s="142"/>
@@ -8197,13 +8104,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="159" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="158"/>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="160"/>
@@ -8212,43 +8119,43 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="200" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
+        <v>115</v>
+      </c>
+      <c r="B4" s="202" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="165" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="166" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="201" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
+      <c r="B5" s="203" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="164" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="166"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="205" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="166"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="203" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="165" t="s">
         <v>6</v>
       </c>
@@ -8257,10 +8164,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="165" t="s">
         <v>7</v>
       </c>
@@ -8291,16 +8198,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C11" s="195" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D11" s="189" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="195" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F11" s="190" t="s">
         <v>11</v>
@@ -8311,16 +8218,16 @@
         <v>42583</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C12" s="177" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D12" s="177" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F12" s="179" t="s">
         <v>12</v>
@@ -8432,40 +8339,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="208"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="212" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
+      <c r="A6" s="214" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -8474,18 +8381,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="209" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="211"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="211" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -8521,7 +8428,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>19</v>
@@ -8539,16 +8446,16 @@
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" s="198" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -8559,16 +8466,16 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F12" s="197" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
@@ -8579,16 +8486,16 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>136</v>
-      </c>
       <c r="F13" s="197" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
@@ -8599,16 +8506,16 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
@@ -8619,16 +8526,16 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F15" s="197" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
@@ -8639,16 +8546,16 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F16" s="197" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
@@ -8659,16 +8566,16 @@
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F17" s="197" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
@@ -8679,16 +8586,16 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F18" s="197" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
@@ -8699,16 +8606,16 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F19" s="197" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="28"/>
@@ -8805,17 +8712,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -8830,74 +8737,74 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="217" t="str">
+        <v>115</v>
+      </c>
+      <c r="B4" s="219" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="218" t="s">
+      <c r="C4" s="219"/>
+      <c r="D4" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="218"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="221"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="223"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="217" t="str">
+      <c r="B5" s="219" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="218" t="s">
+      <c r="C5" s="219"/>
+      <c r="D5" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="218"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="221"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="223"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="217" t="str">
+      <c r="B6" s="219" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="218" t="s">
+      <c r="C6" s="219"/>
+      <c r="D6" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="218"/>
-      <c r="F6" s="222">
+      <c r="E6" s="220"/>
+      <c r="F6" s="224">
         <v>42585</v>
       </c>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="224"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="226"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="215" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -8937,7 +8844,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>24</v>
@@ -8949,13 +8856,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>27</v>
@@ -8966,11 +8873,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="198" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="48">
         <f>createLesson!A6</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="48">
         <f>createLesson!C6</f>
@@ -8986,7 +8893,7 @@
       </c>
       <c r="G12" s="48">
         <f>createLesson!M6</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="48">
         <f>createLesson!N6</f>
@@ -8994,7 +8901,7 @@
       </c>
       <c r="I12" s="48">
         <f>createLesson!O6</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5">
@@ -9002,7 +8909,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="197" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="48">
         <f>getLessionVersion!A6</f>
@@ -9038,11 +8945,11 @@
         <v>3</v>
       </c>
       <c r="B14" s="197" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="48">
         <f>updateLesson!A6</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="48">
         <f>updateLesson!C6</f>
@@ -9054,11 +8961,11 @@
       </c>
       <c r="F14" s="49">
         <f>updateLesson!L6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="48">
         <f>updateLesson!M6</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H14" s="48">
         <f>updateLesson!N6</f>
@@ -9066,7 +8973,7 @@
       </c>
       <c r="I14" s="48">
         <f>updateLesson!O6</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5">
@@ -9074,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="197" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" s="48">
         <f>publishLessonVersion!A6</f>
@@ -9110,7 +9017,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="197" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="48">
         <f>reportLesson!A6</f>
@@ -9146,7 +9053,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="197" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C17" s="48">
         <f>getLessonsOfCourse!A6</f>
@@ -9182,11 +9089,11 @@
         <v>7</v>
       </c>
       <c r="B18" s="197" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C18" s="48">
         <f>getAllLesson!A6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="48">
         <f>getAllLesson!C6</f>
@@ -9202,7 +9109,7 @@
       </c>
       <c r="G18" s="48">
         <f>getAllLesson!M6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48">
         <f>getAllLesson!N6</f>
@@ -9210,7 +9117,7 @@
       </c>
       <c r="I18" s="48">
         <f>getAllLesson!O6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5">
@@ -9218,7 +9125,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="197" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="48">
         <f>getLesson!A6</f>
@@ -9254,7 +9161,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="197" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" s="48">
         <f>getVersionOfLesson!A6</f>
@@ -9292,7 +9199,7 @@
       </c>
       <c r="C21" s="51">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="0"/>
@@ -9304,11 +9211,11 @@
       </c>
       <c r="F21" s="51">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="51">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H21" s="51">
         <f t="shared" si="0"/>
@@ -9316,7 +9223,7 @@
       </c>
       <c r="I21" s="51">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9351,7 +9258,7 @@
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="41"/>
       <c r="B24" s="78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="62">
@@ -9368,12 +9275,12 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="B25" s="78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>20.833333333333332</v>
+        <v>21.951219512195124</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>30</v>
@@ -9381,11 +9288,11 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="B26" s="78" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>79.166666666666671</v>
+        <v>78.048780487804876</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>30</v>
@@ -9440,10 +9347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9452,7 +9359,7 @@
     <col min="2" max="2" width="13.375" style="88" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="84" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="84" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="84" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="2.875" style="84" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
     <col min="9" max="10" width="2.875" style="84" bestFit="1" customWidth="1"/>
@@ -9467,57 +9374,57 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="262" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="263"/>
+      <c r="A2" s="227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="264" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="265"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="226" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="250" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
+      <c r="F2" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="252" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
       <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -9526,109 +9433,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>22</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
-        <f>COUNTIF(F27:HJ27,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
-        <f>COUNTIF(F27:HJ27,"F")</f>
+      <c r="A6" s="233">
+        <f>COUNTIF(F26:HH26,"P")</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
+        <f>COUNTIF(F26:HH26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E26:HJ26,"N")</f>
+        <f>COUNTIF(E25:HH25,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E26:HJ26,"A")</f>
-        <v>7</v>
+        <f>COUNTIF(E25:HH25,"A")</f>
+        <v>5</v>
       </c>
       <c r="N6" s="101">
-        <f>COUNTIF(E26:HJ26,"B")</f>
+        <f>COUNTIF(E25:HH25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
-        <f>COUNTA(E8:HM8)</f>
-        <v>8</v>
-      </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="O6" s="245">
+        <f>COUNTA(E8:HK8)</f>
+        <v>6</v>
+      </c>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1">
@@ -9677,22 +9584,16 @@
       <c r="K8" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="147" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="147" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="91"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -9703,15 +9604,13 @@
       <c r="I9" s="110"/>
       <c r="J9" s="110"/>
       <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -9720,9 +9619,7 @@
       <c r="I10" s="110"/>
       <c r="J10" s="110"/>
       <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="O10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
@@ -9736,8 +9633,6 @@
       <c r="I11" s="110"/>
       <c r="J11" s="110"/>
       <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="149"/>
@@ -9751,13 +9646,11 @@
       <c r="I12" s="110"/>
       <c r="J12" s="110"/>
       <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -9768,80 +9661,73 @@
       <c r="I13" s="110"/>
       <c r="J13" s="110"/>
       <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="149"/>
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
       <c r="J14" s="110"/>
       <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106"/>
       <c r="C15" s="107"/>
-      <c r="D15" s="108" t="s">
-        <v>160</v>
+      <c r="D15" s="191">
+        <v>0</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
-      <c r="H15" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="156"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="149"/>
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
-      <c r="D16" s="191" t="s">
-        <v>128</v>
+      <c r="D16" s="108" t="s">
+        <v>42</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="156"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1">
+      <c r="H16" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="156"/>
+    </row>
+    <row r="17" spans="1:11" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
-      <c r="B17" s="106"/>
+      <c r="B17" s="106" t="s">
+        <v>125</v>
+      </c>
       <c r="C17" s="107"/>
-      <c r="D17" s="108" t="s">
-        <v>45</v>
-      </c>
+      <c r="D17" s="108"/>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
@@ -9849,303 +9735,237 @@
       <c r="I17" s="110"/>
       <c r="J17" s="110"/>
       <c r="K17" s="110"/>
-      <c r="L17" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="N17" s="156"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1">
       <c r="A18" s="149"/>
-      <c r="B18" s="106" t="s">
-        <v>129</v>
-      </c>
+      <c r="B18" s="106"/>
       <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
+      <c r="D18" s="108" t="s">
+        <v>126</v>
+      </c>
       <c r="E18" s="114"/>
-      <c r="F18" s="110"/>
+      <c r="F18" s="110" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
+      <c r="H18" s="110" t="s">
+        <v>80</v>
+      </c>
       <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
+      <c r="J18" s="110" t="s">
+        <v>80</v>
+      </c>
       <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:11" ht="13.5" customHeight="1">
       <c r="A19" s="149"/>
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E19" s="114"/>
-      <c r="F19" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+      <c r="F19" s="110"/>
+      <c r="G19" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="149"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="149"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A22" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1">
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A22" s="151"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="137"/>
+      <c r="F22" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1">
       <c r="A23" s="151"/>
       <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="E23" s="129"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="151"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="127" t="s">
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A25" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="151"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A26" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="247" t="s">
+      <c r="G25" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136" t="s">
+      <c r="H25" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A26" s="152"/>
+      <c r="B26" s="250" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="136" t="s">
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A27" s="152"/>
+      <c r="B27" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A27" s="152"/>
-      <c r="B27" s="248" t="s">
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="140">
+        <v>39139</v>
+      </c>
+      <c r="G27" s="140">
+        <v>39139</v>
+      </c>
+      <c r="H27" s="140">
+        <v>39140</v>
+      </c>
+      <c r="I27" s="140">
+        <v>39141</v>
+      </c>
+      <c r="J27" s="140">
+        <v>39142</v>
+      </c>
+      <c r="K27" s="140">
+        <v>39143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A28" s="153"/>
+      <c r="B28" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="248"/>
-      <c r="D27" s="248"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="140">
-        <v>39139</v>
-      </c>
-      <c r="G28" s="140">
-        <v>39139</v>
-      </c>
-      <c r="H28" s="140">
-        <v>39140</v>
-      </c>
-      <c r="I28" s="140">
-        <v>39141</v>
-      </c>
-      <c r="J28" s="140">
-        <v>39142</v>
-      </c>
-      <c r="K28" s="140">
-        <v>39143</v>
-      </c>
-      <c r="L28" s="140">
-        <v>39144</v>
-      </c>
-      <c r="M28" s="140">
-        <v>39145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="153"/>
-      <c r="B29" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-    </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A30" s="157"/>
-    </row>
-    <row r="32" spans="1:14" ht="10.5"/>
-    <row r="33" ht="10.5"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A29" s="157"/>
+    </row>
+    <row r="31" spans="1:11" ht="10.5"/>
+    <row r="32" spans="1:11" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="L2:T2"/>
@@ -10156,15 +9976,15 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="O5:T5"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F6:K6"/>
@@ -10176,13 +9996,13 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:M26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:K25">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:K26">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:K24">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10199,7 +10019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -10225,56 +10045,56 @@
       <c r="D1" s="155"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="262" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="263"/>
+      <c r="A2" s="227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="264" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="265"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="226" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="250" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
+      <c r="F2" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="252" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -10283,88 +10103,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>21</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F30:HK30,"P")</f>
         <v>9</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F30:HK30,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E29:HK29,"N")</f>
         <v>1</v>
@@ -10377,15 +10197,15 @@
         <f>COUNTIF(E29:HK29,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HN8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1">
@@ -10449,10 +10269,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -10472,7 +10292,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -10522,7 +10342,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10542,17 +10362,17 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="110"/>
@@ -10573,13 +10393,13 @@
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
       <c r="I15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
@@ -10590,7 +10410,7 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
@@ -10600,20 +10420,20 @@
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O16" s="92"/>
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -10634,21 +10454,21 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
       <c r="I18" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M18" s="110"/>
       <c r="N18" s="110"/>
@@ -10663,17 +10483,17 @@
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H19" s="110"/>
       <c r="I19" s="110"/>
       <c r="J19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K19" s="110"/>
       <c r="L19" s="110"/>
       <c r="M19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N19" s="110"/>
     </row>
@@ -10682,23 +10502,23 @@
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
       <c r="N20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
@@ -10719,10 +10539,10 @@
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1" thickTop="1">
       <c r="A22" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="121"/>
       <c r="D22" s="122"/>
@@ -10742,11 +10562,11 @@
       <c r="B23" s="125"/>
       <c r="C23" s="126"/>
       <c r="D23" s="127" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E23" s="137"/>
       <c r="F23" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
@@ -10762,39 +10582,39 @@
       <c r="B24" s="125"/>
       <c r="C24" s="128"/>
       <c r="D24" s="127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E24" s="129"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1">
       <c r="A25" s="151"/>
       <c r="B25" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="127"/>
@@ -10814,29 +10634,29 @@
       <c r="B26" s="125"/>
       <c r="C26" s="128"/>
       <c r="D26" s="127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="110"/>
       <c r="G26" s="110"/>
       <c r="H26" s="110"/>
       <c r="I26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N26" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1">
@@ -10844,15 +10664,15 @@
       <c r="B27" s="125"/>
       <c r="C27" s="128"/>
       <c r="D27" s="127" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E27" s="129"/>
       <c r="F27" s="110"/>
       <c r="G27" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H27" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" s="110"/>
       <c r="J27" s="110"/>
@@ -10879,85 +10699,85 @@
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" thickTop="1">
       <c r="A29" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="247"/>
-      <c r="D29" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B29" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="135"/>
       <c r="F29" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N29" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="248"/>
-      <c r="D30" s="248"/>
+      <c r="B30" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
       <c r="E30" s="138"/>
       <c r="F30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N30" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
+      <c r="B31" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="251"/>
+      <c r="D31" s="251"/>
       <c r="E31" s="129"/>
       <c r="F31" s="140">
         <v>39139</v>
@@ -10989,11 +10809,11 @@
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="153"/>
-      <c r="B32" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
+      <c r="B32" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
       <c r="E32" s="141"/>
       <c r="F32" s="142"/>
       <c r="G32" s="142"/>
@@ -11067,7 +10887,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -11091,55 +10911,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="225" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="262" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="226" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="250" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
+      <c r="A2" s="227" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="228"/>
+      <c r="C2" s="264" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="228" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="228"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="228"/>
+      <c r="J2" s="228"/>
+      <c r="K2" s="228"/>
+      <c r="L2" s="252" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -11148,109 +10968,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>18</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
-        <f>COUNTIF(F28:HN28,"P")</f>
-        <v>12</v>
-      </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
-        <f>COUNTIF(F28:HN28,"F")</f>
+      <c r="A6" s="233">
+        <f>COUNTIF(F28:HJ28,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
+        <f>COUNTIF(F28:HJ28,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E27:HN27,"N")</f>
-        <v>2</v>
+        <f>COUNTIF(E27:HJ27,"N")</f>
+        <v>1</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E27:HN27,"A")</f>
-        <v>10</v>
+        <f>COUNTIF(E27:HJ27,"A")</f>
+        <v>7</v>
       </c>
       <c r="N6" s="101">
-        <f>COUNTIF(E27:HN27,"B")</f>
+        <f>COUNTIF(E27:HJ27,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
-        <f>COUNTA(E8:HQ8)</f>
-        <v>12</v>
-      </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="O6" s="245">
+        <f>COUNTA(E8:HM8)</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11284,28 +11104,16 @@
       <c r="M8" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="147" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="147" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="93"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="93"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -11318,17 +11126,13 @@
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -11339,11 +11143,7 @@
       <c r="K10" s="110"/>
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="S10" s="100"/>
+      <c r="O10" s="100"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
@@ -11359,10 +11159,6 @@
       <c r="K11" s="110"/>
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="149"/>
@@ -11378,15 +11174,11 @@
       <c r="K12" s="110"/>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -11399,24 +11191,20 @@
       <c r="K13" s="110"/>
       <c r="L13" s="110"/>
       <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="149"/>
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
@@ -11424,20 +11212,14 @@
       <c r="K14" s="110"/>
       <c r="L14" s="110"/>
       <c r="M14" s="110"/>
-      <c r="N14" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="T14" s="100"/>
+      <c r="P14" s="100"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
@@ -11447,18 +11229,12 @@
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
       <c r="L15" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M15" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="T15" s="100"/>
+        <v>80</v>
+      </c>
+      <c r="P15" s="100"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="149"/>
@@ -11471,28 +11247,22 @@
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
       <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="110"/>
-    </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1">
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
@@ -11500,25 +11270,19 @@
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
       <c r="J17" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K17" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L17" s="110"/>
       <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" s="113"/>
-    </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1">
+      <c r="N17" s="113"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1">
       <c r="A18" s="149"/>
       <c r="B18" s="106" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" s="107"/>
       <c r="D18" s="108"/>
@@ -11531,77 +11295,63 @@
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="113"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1">
+      <c r="N18" s="113"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1">
       <c r="A19" s="149"/>
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K19" s="110"/>
       <c r="L19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-    </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1">
       <c r="A20" s="149"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="191" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" s="110"/>
       <c r="I20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J20" s="110"/>
       <c r="K20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L20" s="110"/>
       <c r="M20" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-    </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1">
       <c r="A21" s="149"/>
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="108" t="s">
-        <v>162</v>
-      </c>
+      <c r="D21" s="108"/>
       <c r="E21" s="114"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110"/>
@@ -11611,20 +11361,8 @@
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
       <c r="M21" s="110"/>
-      <c r="N21" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="149"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -11638,17 +11376,13 @@
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
       <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
       <c r="A23" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="127"/>
@@ -11661,74 +11395,56 @@
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
       <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:14" ht="13.5" customHeight="1">
       <c r="A24" s="151"/>
       <c r="B24" s="125"/>
       <c r="C24" s="128"/>
       <c r="D24" s="127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E24" s="129"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H24" s="110"/>
       <c r="I24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J24" s="110"/>
       <c r="K24" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L24" s="110"/>
       <c r="M24" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="110"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="110"/>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="13.5" customHeight="1">
       <c r="A25" s="151"/>
       <c r="B25" s="125"/>
       <c r="C25" s="128"/>
       <c r="D25" s="127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E25" s="129"/>
       <c r="F25" s="110"/>
       <c r="G25" s="110"/>
       <c r="H25" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I25" s="110"/>
       <c r="J25" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K25" s="110"/>
       <c r="L25" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="P25" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" s="110" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="151"/>
       <c r="B26" s="130"/>
       <c r="C26" s="131"/>
@@ -11742,110 +11458,82 @@
       <c r="K26" s="134"/>
       <c r="L26" s="134"/>
       <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="134"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="27" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
       <c r="A27" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="135"/>
       <c r="F27" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A28" s="152"/>
+      <c r="B28" s="250" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="M27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A28" s="152"/>
-      <c r="B28" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="248"/>
-      <c r="D28" s="248"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
       <c r="E28" s="138"/>
       <c r="F28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L28" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M28" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="13.5" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
+      <c r="B29" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="251"/>
+      <c r="D29" s="251"/>
       <c r="E29" s="129"/>
       <c r="F29" s="140">
         <v>39139</v>
@@ -11871,26 +11559,14 @@
       <c r="M29" s="140">
         <v>39145</v>
       </c>
-      <c r="N29" s="140">
-        <v>39146</v>
-      </c>
-      <c r="O29" s="140">
-        <v>39147</v>
-      </c>
-      <c r="P29" s="140">
-        <v>39148</v>
-      </c>
-      <c r="Q29" s="140">
-        <v>39149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="30" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
+      <c r="B30" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
       <c r="E30" s="141"/>
       <c r="F30" s="142"/>
       <c r="G30" s="142"/>
@@ -11900,18 +11576,14 @@
       <c r="K30" s="142"/>
       <c r="L30" s="142"/>
       <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-    </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
       <c r="A31" s="103"/>
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
       <c r="D31" s="95"/>
     </row>
-    <row r="32" spans="1:18" ht="10.5"/>
+    <row r="32" spans="1:14" ht="10.5"/>
     <row r="33" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
@@ -11943,13 +11615,13 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:Q27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:Q28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:M28">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:Q26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M26">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -11991,55 +11663,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -12048,88 +11720,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>26</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>1</v>
@@ -12142,15 +11814,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -12178,10 +11850,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -12196,7 +11868,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -12230,7 +11902,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -12245,27 +11917,27 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -12280,11 +11952,11 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
@@ -12300,7 +11972,7 @@
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
@@ -12310,13 +11982,13 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110"/>
       <c r="G18" s="110"/>
       <c r="H18" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I18" s="110"/>
     </row>
@@ -12325,14 +11997,14 @@
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
       <c r="I19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -12348,10 +12020,10 @@
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A21" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="128"/>
       <c r="D21" s="127"/>
@@ -12366,15 +12038,15 @@
       <c r="B22" s="125"/>
       <c r="C22" s="128"/>
       <c r="D22" s="127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I22" s="110"/>
     </row>
@@ -12383,11 +12055,11 @@
       <c r="B23" s="125"/>
       <c r="C23" s="128"/>
       <c r="D23" s="127" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
@@ -12406,55 +12078,55 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="248"/>
-      <c r="D26" s="248"/>
+      <c r="B26" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I26" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+      <c r="B27" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -12471,11 +12143,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -12540,7 +12212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -12565,55 +12237,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="263"/>
-      <c r="F2" s="265" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="267" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
+      <c r="A2" s="266" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="267"/>
+      <c r="C2" s="268" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="F2" s="267" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="269" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="271"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="237" t="s">
+      <c r="A3" s="234" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="235"/>
+      <c r="C3" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="255" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
+      <c r="N3" s="240"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -12622,88 +12294,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="235"/>
+      <c r="A4" s="234" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="235"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="257"/>
-      <c r="L4" s="258">
+      <c r="F4" s="257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="260">
         <v>27</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="261"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="261"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="262"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="240" t="s">
+      <c r="A5" s="242" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="243"/>
+      <c r="C5" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="247" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="241"/>
-      <c r="C5" s="253" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="253" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="245" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="246"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="244"/>
+      <c r="R5" s="244"/>
+      <c r="S5" s="244"/>
+      <c r="T5" s="248"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="231">
+      <c r="A6" s="233">
         <f>COUNTIF(F29:HE29,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="227">
+      <c r="B6" s="232"/>
+      <c r="C6" s="229">
         <f>COUNTIF(F29:HE29,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="228"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="227">
+      <c r="D6" s="230"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="229">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="229"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="230"/>
+      <c r="J6" s="230"/>
+      <c r="K6" s="231"/>
       <c r="L6" s="101">
         <f>COUNTIF(E28:HE28,"N")</f>
         <v>1</v>
@@ -12716,15 +12388,15 @@
         <f>COUNTIF(E28:HE28,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="243">
+      <c r="O6" s="245">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="228"/>
-      <c r="R6" s="228"/>
-      <c r="S6" s="228"/>
-      <c r="T6" s="244"/>
+      <c r="P6" s="230"/>
+      <c r="Q6" s="230"/>
+      <c r="R6" s="230"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="246"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -12749,10 +12421,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -12766,7 +12438,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -12797,7 +12469,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -12811,17 +12483,17 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K14" s="100"/>
     </row>
@@ -12849,7 +12521,7 @@
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -12863,11 +12535,11 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
@@ -12882,7 +12554,7 @@
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H19" s="110"/>
     </row>
@@ -12891,19 +12563,19 @@
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="149"/>
       <c r="B21" s="106" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="108"/>
@@ -12917,17 +12589,17 @@
       <c r="B22" s="106"/>
       <c r="C22" s="107"/>
       <c r="D22" s="108" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
@@ -12942,10 +12614,10 @@
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A24" s="150" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="127"/>
@@ -12959,15 +12631,15 @@
       <c r="B25" s="125"/>
       <c r="C25" s="128"/>
       <c r="D25" s="127" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E25" s="129"/>
       <c r="F25" s="110"/>
       <c r="G25" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H25" s="110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
@@ -12992,49 +12664,49 @@
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A28" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="247" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
+        <v>43</v>
+      </c>
+      <c r="B28" s="249" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="135"/>
       <c r="F28" s="136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H28" s="136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="248" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
+      <c r="B29" s="250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="250"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="138"/>
       <c r="F29" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H29" s="139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
+      <c r="B30" s="251" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="251"/>
+      <c r="D30" s="251"/>
       <c r="E30" s="129"/>
       <c r="F30" s="140">
         <v>39139</v>
@@ -13048,11 +12720,11 @@
     </row>
     <row r="31" spans="1:8" ht="11.25" thickBot="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="236" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
+      <c r="B31" s="238" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
       <c r="E31" s="141"/>
       <c r="F31" s="142"/>
       <c r="G31" s="142"/>

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Lesson_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="0" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -47,8 +47,8 @@
     <definedName name="getLessonVersion" localSheetId="7">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="8">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">createLesson!$A$1:$T$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">getAllLesson!$A$1:$T$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">createLesson!$A$1:$T$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">getAllLesson!$A$1:$T$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">getLessionVersion!$A$1:$T$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">getLesson!$A$1:$T$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">getLessonsOfCourse!$A$1:$T$39</definedName>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="194">
   <si>
     <r>
       <rPr>
@@ -753,6 +753,15 @@
   </si>
   <si>
     <t>UTCID09</t>
+  </si>
+  <si>
+    <t>UTCID10</t>
+  </si>
+  <si>
+    <t>UTCID11</t>
+  </si>
+  <si>
+    <t>UTCID12</t>
   </si>
   <si>
     <t>null</t>
@@ -1268,6 +1277,9 @@
     <t>creatorId</t>
   </si>
   <si>
+    <t>""</t>
+  </si>
+  <si>
     <t>CreateLessonForm</t>
   </si>
   <si>
@@ -1367,6 +1379,9 @@
     <t>valid lesson form</t>
   </si>
   <si>
+    <t>valid lesson form with updating version</t>
+  </si>
+  <si>
     <t>don't have version can be published</t>
   </si>
   <si>
@@ -1385,6 +1400,9 @@
     <t>courseId</t>
   </si>
   <si>
+    <t>No lesson</t>
+  </si>
+  <si>
     <t>GetLessonResponse</t>
   </si>
   <si>
@@ -1404,6 +1422,9 @@
   </si>
   <si>
     <t>lessons have been created</t>
+  </si>
+  <si>
+    <t>no lesson have been created</t>
   </si>
   <si>
     <t>valid lesson Id</t>
@@ -3606,8 +3627,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="34" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="43" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3819,6 +3838,8 @@
     <xf numFmtId="49" fontId="38" fillId="30" borderId="75" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="32" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4074,10 +4095,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4507,10 +4528,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4791,7 +4812,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5228,7 +5249,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5805,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="64" customFormat="1" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="64" customFormat="1" ht="22.5">
@@ -5813,37 +5834,37 @@
     </row>
     <row r="3" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A3" s="65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="72" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -5851,27 +5872,27 @@
     </row>
     <row r="11" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A11" s="65" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="75" customFormat="1" ht="15">
       <c r="A12" s="74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="67" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5879,136 +5900,136 @@
     </row>
     <row r="17" spans="1:4" s="75" customFormat="1" ht="15">
       <c r="A17" s="74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B18" s="73"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="74" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B20" s="73"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="67" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="73" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="67" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="73"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="74" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="67" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="70" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39" s="73"/>
     </row>
@@ -6018,42 +6039,42 @@
     </row>
     <row r="41" spans="1:2" s="75" customFormat="1" ht="15">
       <c r="A41" s="74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="67" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="67" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="67" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6070,8 +6091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6095,55 +6116,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -6152,90 +6173,90 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236">
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234">
         <v>300</v>
       </c>
-      <c r="D4" s="237"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>26</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>1</v>
@@ -6248,15 +6269,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6284,10 +6305,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -6302,7 +6323,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -6336,7 +6357,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -6351,11 +6372,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -6372,7 +6393,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="110"/>
@@ -6382,13 +6403,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="113"/>
@@ -6398,14 +6419,14 @@
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
       <c r="I17" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -6421,10 +6442,10 @@
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A19" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" s="121"/>
       <c r="D19" s="122"/>
@@ -6439,11 +6460,11 @@
       <c r="B20" s="125"/>
       <c r="C20" s="126"/>
       <c r="D20" s="127" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E20" s="137"/>
       <c r="F20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
@@ -6454,24 +6475,24 @@
       <c r="B21" s="125"/>
       <c r="C21" s="128"/>
       <c r="D21" s="127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" s="129"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H21" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I21" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
       <c r="A22" s="151"/>
       <c r="B22" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="127"/>
@@ -6486,14 +6507,14 @@
       <c r="B23" s="125"/>
       <c r="C23" s="128"/>
       <c r="D23" s="127" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
       <c r="I23" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -6501,67 +6522,67 @@
       <c r="B24" s="130"/>
       <c r="C24" s="131"/>
       <c r="D24" s="132" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E24" s="133"/>
       <c r="F24" s="134"/>
       <c r="G24" s="134"/>
       <c r="H24" s="134" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I24" s="134"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
+      <c r="B26" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
+      <c r="B27" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -6578,11 +6599,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -6645,10 +6666,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6672,55 +6693,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -6729,109 +6750,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>28</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
-        <f>COUNTIF(F17:HC17,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
-        <f>COUNTIF(F17:HC17,"F")</f>
+      <c r="A6" s="231">
+        <f>COUNTIF(F21:HD21,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
+        <f>COUNTIF(F21:HD21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E16:HC16,"N")</f>
+        <f>COUNTIF(E20:HD20,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E16:HC16,"A")</f>
+        <f>COUNTIF(E20:HD20,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="101">
+        <f>COUNTIF(E20:HD20,"B")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="101">
-        <f>COUNTIF(E16:HC16,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="245">
-        <f>COUNTA(E8:HF8)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="O6" s="243">
+        <f>COUNTA(E8:HG8)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -6844,140 +6865,212 @@
       <c r="F8" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="93"/>
+      <c r="G8" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
       <c r="E9" s="109"/>
       <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
       <c r="B11" s="106"/>
       <c r="C11" s="107"/>
       <c r="D11" s="108" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E11" s="111"/>
       <c r="F11" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+        <v>83</v>
+      </c>
+      <c r="G11" s="110"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="149"/>
       <c r="B12" s="106"/>
       <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="112"/>
       <c r="F12" s="110"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
+      <c r="G12" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A13" s="149"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A14" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="151"/>
       <c r="B15" s="125"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="110"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="249"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="110"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="151"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="127" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A17" s="152"/>
-      <c r="B17" s="250" t="s">
+      <c r="E16" s="129"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A17" s="151"/>
+      <c r="B17" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="151"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="127" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="129"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="151"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A20" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="152"/>
-      <c r="B18" s="251" t="s">
+      <c r="G20" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="140">
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="152"/>
+      <c r="B21" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="152"/>
+      <c r="B22" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="140">
         <v>39139</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" thickBot="1">
-      <c r="A19" s="153"/>
-      <c r="B19" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" thickTop="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="95"/>
+      <c r="G22" s="140">
+        <v>39139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A23" s="153"/>
+      <c r="B23" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A24" s="103"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -7000,21 +7093,21 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G19">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -7056,55 +7149,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -7113,88 +7206,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>27</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F26:HE26,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F26:HE26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HE25,"N")</f>
         <v>1</v>
@@ -7207,15 +7300,15 @@
         <f>COUNTIF(E25:HE25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7240,10 +7333,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -7257,7 +7350,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -7288,7 +7381,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7302,11 +7395,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -7322,7 +7415,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="110"/>
     </row>
@@ -7331,13 +7424,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="113"/>
     </row>
@@ -7353,10 +7446,10 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A18" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="122"/>
@@ -7370,11 +7463,11 @@
       <c r="B19" s="125"/>
       <c r="C19" s="126"/>
       <c r="D19" s="127" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E19" s="137"/>
       <c r="F19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
@@ -7384,21 +7477,21 @@
       <c r="B20" s="125"/>
       <c r="C20" s="128"/>
       <c r="D20" s="127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="151"/>
       <c r="B21" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" s="128"/>
       <c r="D21" s="127"/>
@@ -7412,15 +7505,15 @@
       <c r="B22" s="125"/>
       <c r="C22" s="128"/>
       <c r="D22" s="127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1">
@@ -7445,49 +7538,49 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
+      <c r="B26" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
+      <c r="B27" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -7501,11 +7594,11 @@
     </row>
     <row r="28" spans="1:8" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -7569,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -7594,55 +7687,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -7651,88 +7744,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>27</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F24:HE24,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F24:HE24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E23:HE23,"N")</f>
         <v>1</v>
@@ -7745,15 +7838,15 @@
         <f>COUNTIF(E23:HE23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7778,10 +7871,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -7795,7 +7888,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -7826,7 +7919,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -7840,11 +7933,11 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -7860,7 +7953,7 @@
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" s="110"/>
     </row>
@@ -7869,13 +7962,13 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="113"/>
     </row>
@@ -7891,10 +7984,10 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1">
       <c r="A18" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" s="121"/>
       <c r="D18" s="122"/>
@@ -7908,11 +8001,11 @@
       <c r="B19" s="125"/>
       <c r="C19" s="126"/>
       <c r="D19" s="127" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E19" s="137"/>
       <c r="F19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
@@ -7922,25 +8015,25 @@
       <c r="B20" s="125"/>
       <c r="C20" s="128"/>
       <c r="D20" s="127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="151"/>
       <c r="B21" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="199"/>
+        <v>69</v>
+      </c>
+      <c r="C21" s="270"/>
       <c r="D21" s="132"/>
-      <c r="E21" s="200"/>
+      <c r="E21" s="271"/>
       <c r="F21" s="134"/>
       <c r="G21" s="134"/>
       <c r="H21" s="134"/>
@@ -7950,62 +8043,62 @@
       <c r="B22" s="130"/>
       <c r="C22" s="131"/>
       <c r="D22" s="132" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="134"/>
       <c r="G22" s="134" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" s="134" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A23" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
       <c r="E23" s="135"/>
       <c r="F23" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G23" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H23" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1">
       <c r="A24" s="152"/>
-      <c r="B24" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
+      <c r="B24" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="138"/>
       <c r="F24" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G24" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H24" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="152"/>
-      <c r="B25" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="251"/>
-      <c r="D25" s="251"/>
+      <c r="B25" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
       <c r="E25" s="129"/>
       <c r="F25" s="140">
         <v>39139</v>
@@ -8019,11 +8112,11 @@
     </row>
     <row r="26" spans="1:8" ht="11.25" thickBot="1">
       <c r="A26" s="153"/>
-      <c r="B26" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="238"/>
-      <c r="D26" s="238"/>
+      <c r="B26" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
       <c r="E26" s="141"/>
       <c r="F26" s="142"/>
       <c r="G26" s="142"/>
@@ -8104,13 +8197,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="159" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="158"/>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="160"/>
@@ -8119,43 +8212,43 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="202" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
+        <v>118</v>
+      </c>
+      <c r="B4" s="200" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
       <c r="E4" s="165" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="166" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="203" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
+      <c r="B5" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="164" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F5" s="166"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="205" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
+      <c r="B6" s="203" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
       <c r="E6" s="165" t="s">
         <v>6</v>
       </c>
@@ -8164,10 +8257,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="204"/>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
       <c r="E7" s="165" t="s">
         <v>7</v>
       </c>
@@ -8198,16 +8291,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C11" s="195" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D11" s="189" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="195" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F11" s="190" t="s">
         <v>11</v>
@@ -8218,16 +8311,16 @@
         <v>42583</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C12" s="177" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D12" s="177" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F12" s="179" t="s">
         <v>12</v>
@@ -8339,40 +8432,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="208"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="210"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="206" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="214" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216"/>
+      <c r="A6" s="212" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="214"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -8381,18 +8474,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="211" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="209" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="211"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -8428,7 +8521,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>19</v>
@@ -8446,16 +8539,16 @@
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F11" s="198" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -8466,16 +8559,16 @@
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F12" s="197" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
@@ -8486,16 +8579,16 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F13" s="197" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
@@ -8506,16 +8599,16 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
@@ -8526,16 +8619,16 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F15" s="197" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
@@ -8546,16 +8639,16 @@
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F16" s="197" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
@@ -8566,16 +8659,16 @@
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F17" s="197" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
@@ -8586,16 +8679,16 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F18" s="197" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
@@ -8606,16 +8699,16 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F19" s="197" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="28"/>
@@ -8712,17 +8805,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="36"/>
@@ -8737,74 +8830,74 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="219" t="str">
+        <v>118</v>
+      </c>
+      <c r="B4" s="217" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220" t="s">
+      <c r="C4" s="217"/>
+      <c r="D4" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="220"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="221"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="219" t="str">
+      <c r="B5" s="217" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220" t="s">
+      <c r="C5" s="217"/>
+      <c r="D5" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="220"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="223"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="221"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="219" t="str">
+      <c r="B6" s="217" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220" t="s">
+      <c r="C6" s="217"/>
+      <c r="D6" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="224">
+      <c r="E6" s="218"/>
+      <c r="F6" s="222">
         <v>42585</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="226"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="224"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="217" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="217"/>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -8844,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>24</v>
@@ -8856,13 +8949,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>27</v>
@@ -8873,11 +8966,11 @@
         <v>1</v>
       </c>
       <c r="B12" s="198" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C12" s="48">
         <f>createLesson!A6</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="48">
         <f>createLesson!C6</f>
@@ -8893,7 +8986,7 @@
       </c>
       <c r="G12" s="48">
         <f>createLesson!M6</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H12" s="48">
         <f>createLesson!N6</f>
@@ -8901,7 +8994,7 @@
       </c>
       <c r="I12" s="48">
         <f>createLesson!O6</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5">
@@ -8909,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="197" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C13" s="48">
         <f>getLessionVersion!A6</f>
@@ -8945,11 +9038,11 @@
         <v>3</v>
       </c>
       <c r="B14" s="197" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C14" s="48">
         <f>updateLesson!A6</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="48">
         <f>updateLesson!C6</f>
@@ -8961,11 +9054,11 @@
       </c>
       <c r="F14" s="49">
         <f>updateLesson!L6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="48">
         <f>updateLesson!M6</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" s="48">
         <f>updateLesson!N6</f>
@@ -8973,7 +9066,7 @@
       </c>
       <c r="I14" s="48">
         <f>updateLesson!O6</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.5">
@@ -8981,7 +9074,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="197" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C15" s="48">
         <f>publishLessonVersion!A6</f>
@@ -9017,7 +9110,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="197" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C16" s="48">
         <f>reportLesson!A6</f>
@@ -9053,7 +9146,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="197" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C17" s="48">
         <f>getLessonsOfCourse!A6</f>
@@ -9089,11 +9182,11 @@
         <v>7</v>
       </c>
       <c r="B18" s="197" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C18" s="48">
         <f>getAllLesson!A6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="48">
         <f>getAllLesson!C6</f>
@@ -9109,7 +9202,7 @@
       </c>
       <c r="G18" s="48">
         <f>getAllLesson!M6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="48">
         <f>getAllLesson!N6</f>
@@ -9117,7 +9210,7 @@
       </c>
       <c r="I18" s="48">
         <f>getAllLesson!O6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5">
@@ -9125,7 +9218,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="197" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C19" s="48">
         <f>getLesson!A6</f>
@@ -9161,7 +9254,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="197" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C20" s="48">
         <f>getVersionOfLesson!A6</f>
@@ -9199,7 +9292,7 @@
       </c>
       <c r="C21" s="51">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D21" s="51">
         <f t="shared" si="0"/>
@@ -9211,11 +9304,11 @@
       </c>
       <c r="F21" s="51">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="51">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H21" s="51">
         <f t="shared" si="0"/>
@@ -9223,7 +9316,7 @@
       </c>
       <c r="I21" s="51">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -9258,7 +9351,7 @@
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="41"/>
       <c r="B24" s="78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="62">
@@ -9275,12 +9368,12 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="B25" s="78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>21.951219512195124</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>30</v>
@@ -9288,11 +9381,11 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="B26" s="78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>78.048780487804876</v>
+        <v>79.166666666666671</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>30</v>
@@ -9347,10 +9440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9359,7 +9452,7 @@
     <col min="2" max="2" width="13.375" style="88" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="84" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="1.875" style="84" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1.75" style="84" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="2.875" style="84" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="84" customWidth="1"/>
     <col min="9" max="10" width="2.875" style="84" bestFit="1" customWidth="1"/>
@@ -9374,57 +9467,57 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="264" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="265"/>
+      <c r="A2" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="262" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="263"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="228" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="252" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
+      <c r="F2" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="250" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
       <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -9433,109 +9526,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>22</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
-        <f>COUNTIF(F26:HH26,"P")</f>
-        <v>6</v>
-      </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
-        <f>COUNTIF(F26:HH26,"F")</f>
+      <c r="A6" s="231">
+        <f>COUNTIF(F27:HJ27,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
+        <f>COUNTIF(F27:HJ27,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E25:HH25,"N")</f>
+        <f>COUNTIF(E26:HJ26,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E25:HH25,"A")</f>
-        <v>5</v>
+        <f>COUNTIF(E26:HJ26,"A")</f>
+        <v>7</v>
       </c>
       <c r="N6" s="101">
-        <f>COUNTIF(E25:HH25,"B")</f>
+        <f>COUNTIF(E26:HJ26,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
-        <f>COUNTA(E8:HK8)</f>
-        <v>6</v>
-      </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="O6" s="243">
+        <f>COUNTA(E8:HM8)</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1">
@@ -9584,16 +9677,22 @@
       <c r="K8" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="89"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="91"/>
+      <c r="L8" s="147" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="147" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -9604,13 +9703,15 @@
       <c r="I9" s="110"/>
       <c r="J9" s="110"/>
       <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -9619,7 +9720,9 @@
       <c r="I10" s="110"/>
       <c r="J10" s="110"/>
       <c r="K10" s="110"/>
-      <c r="M10" s="86"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="O10" s="86"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
@@ -9633,6 +9736,8 @@
       <c r="I11" s="110"/>
       <c r="J11" s="110"/>
       <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="149"/>
@@ -9646,11 +9751,13 @@
       <c r="I12" s="110"/>
       <c r="J12" s="110"/>
       <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -9661,73 +9768,80 @@
       <c r="I13" s="110"/>
       <c r="J13" s="110"/>
       <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="149"/>
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
       <c r="J14" s="110"/>
       <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106"/>
       <c r="C15" s="107"/>
-      <c r="D15" s="191">
-        <v>0</v>
+      <c r="D15" s="108" t="s">
+        <v>160</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="156"/>
+      <c r="H15" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="149"/>
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
-      <c r="D16" s="108" t="s">
-        <v>42</v>
+      <c r="D16" s="191" t="s">
+        <v>128</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
-      <c r="H16" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="156"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="156"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
-      <c r="B17" s="106" t="s">
-        <v>125</v>
-      </c>
+      <c r="B17" s="106"/>
       <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="D17" s="108" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110"/>
@@ -9735,237 +9849,303 @@
       <c r="I17" s="110"/>
       <c r="J17" s="110"/>
       <c r="K17" s="110"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1">
+      <c r="L17" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="156"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" customHeight="1">
       <c r="A18" s="149"/>
-      <c r="B18" s="106"/>
+      <c r="B18" s="106" t="s">
+        <v>129</v>
+      </c>
       <c r="C18" s="107"/>
-      <c r="D18" s="108" t="s">
-        <v>126</v>
-      </c>
+      <c r="D18" s="108"/>
       <c r="E18" s="114"/>
-      <c r="F18" s="110" t="s">
-        <v>80</v>
-      </c>
+      <c r="F18" s="110"/>
       <c r="G18" s="110"/>
-      <c r="H18" s="110" t="s">
-        <v>80</v>
-      </c>
+      <c r="H18" s="110"/>
       <c r="I18" s="110"/>
-      <c r="J18" s="110" t="s">
-        <v>80</v>
-      </c>
+      <c r="J18" s="110"/>
       <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1">
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1">
       <c r="A19" s="149"/>
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="E19" s="114"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+      <c r="F19" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" customHeight="1">
       <c r="A20" s="149"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A21" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1">
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="114"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A21" s="149"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" customHeight="1">
       <c r="A23" s="151"/>
       <c r="B23" s="125"/>
-      <c r="C23" s="128"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="127" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+        <v>131</v>
+      </c>
+      <c r="E23" s="137"/>
+      <c r="F23" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+    </row>
+    <row r="24" spans="1:14" ht="13.5" customHeight="1">
       <c r="A24" s="151"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A25" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="136" t="s">
+      <c r="B24" s="125"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="136" t="s">
+      <c r="E24" s="129"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="151"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+    </row>
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A26" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="136" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A26" s="152"/>
-      <c r="B26" s="250" t="s">
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1">
+      <c r="G26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="140">
+      <c r="B27" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A28" s="152"/>
+      <c r="B28" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="140">
         <v>39139</v>
       </c>
-      <c r="G27" s="140">
+      <c r="G28" s="140">
         <v>39139</v>
       </c>
-      <c r="H27" s="140">
+      <c r="H28" s="140">
         <v>39140</v>
       </c>
-      <c r="I27" s="140">
+      <c r="I28" s="140">
         <v>39141</v>
       </c>
-      <c r="J27" s="140">
+      <c r="J28" s="140">
         <v>39142</v>
       </c>
-      <c r="K27" s="140">
+      <c r="K28" s="140">
         <v>39143</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="153"/>
-      <c r="B28" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A29" s="157"/>
-    </row>
-    <row r="31" spans="1:11" ht="10.5"/>
-    <row r="32" spans="1:11" ht="10.5"/>
+      <c r="L28" s="140">
+        <v>39144</v>
+      </c>
+      <c r="M28" s="140">
+        <v>39145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A29" s="153"/>
+      <c r="B29" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A30" s="157"/>
+    </row>
+    <row r="32" spans="1:14" ht="10.5"/>
+    <row r="33" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="L2:T2"/>
@@ -9976,15 +10156,15 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="F6:K6"/>
@@ -9996,13 +10176,13 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:K25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:M26">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:K26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:K24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M25">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10019,7 +10199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -10045,56 +10225,56 @@
       <c r="D1" s="155"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="264" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="265"/>
+      <c r="A2" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="262" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="263"/>
       <c r="E2" s="95"/>
-      <c r="F2" s="228" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="252" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
+      <c r="F2" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="250" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -10103,88 +10283,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>21</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="86"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="86"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F30:HK30,"P")</f>
         <v>9</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F30:HK30,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E29:HK29,"N")</f>
         <v>1</v>
@@ -10197,15 +10377,15 @@
         <f>COUNTIF(E29:HK29,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HN8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="87"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1">
@@ -10269,10 +10449,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -10292,7 +10472,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -10342,7 +10522,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -10362,17 +10542,17 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="110"/>
@@ -10393,13 +10573,13 @@
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
       <c r="I15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
@@ -10410,7 +10590,7 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110"/>
@@ -10420,20 +10600,20 @@
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O16" s="92"/>
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -10454,21 +10634,21 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
       <c r="I18" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M18" s="110"/>
       <c r="N18" s="110"/>
@@ -10483,17 +10663,17 @@
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H19" s="110"/>
       <c r="I19" s="110"/>
       <c r="J19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K19" s="110"/>
       <c r="L19" s="110"/>
       <c r="M19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N19" s="110"/>
     </row>
@@ -10502,23 +10682,23 @@
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
       <c r="N20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
@@ -10539,10 +10719,10 @@
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1" thickTop="1">
       <c r="A22" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" s="121"/>
       <c r="D22" s="122"/>
@@ -10562,11 +10742,11 @@
       <c r="B23" s="125"/>
       <c r="C23" s="126"/>
       <c r="D23" s="127" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E23" s="137"/>
       <c r="F23" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
@@ -10582,39 +10762,39 @@
       <c r="B24" s="125"/>
       <c r="C24" s="128"/>
       <c r="D24" s="127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" s="129"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.5" customHeight="1">
       <c r="A25" s="151"/>
       <c r="B25" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" s="128"/>
       <c r="D25" s="127"/>
@@ -10634,29 +10814,29 @@
       <c r="B26" s="125"/>
       <c r="C26" s="128"/>
       <c r="D26" s="127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="110"/>
       <c r="G26" s="110"/>
       <c r="H26" s="110"/>
       <c r="I26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="N26" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13.5" customHeight="1">
@@ -10664,15 +10844,15 @@
       <c r="B27" s="125"/>
       <c r="C27" s="128"/>
       <c r="D27" s="127" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E27" s="129"/>
       <c r="F27" s="110"/>
       <c r="G27" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H27" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I27" s="110"/>
       <c r="J27" s="110"/>
@@ -10699,85 +10879,85 @@
     </row>
     <row r="29" spans="1:15" ht="13.5" customHeight="1" thickTop="1">
       <c r="A29" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="135"/>
       <c r="F29" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N29" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="13.5" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
+      <c r="B30" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="248"/>
+      <c r="D30" s="248"/>
       <c r="E30" s="138"/>
       <c r="F30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N30" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
       <c r="A31" s="152"/>
-      <c r="B31" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="251"/>
-      <c r="D31" s="251"/>
+      <c r="B31" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
       <c r="E31" s="129"/>
       <c r="F31" s="140">
         <v>39139</v>
@@ -10809,11 +10989,11 @@
     </row>
     <row r="32" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A32" s="153"/>
-      <c r="B32" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
+      <c r="B32" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="236"/>
+      <c r="D32" s="236"/>
       <c r="E32" s="141"/>
       <c r="F32" s="142"/>
       <c r="G32" s="142"/>
@@ -10887,7 +11067,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10911,55 +11091,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="264" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="228" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="252" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="253"/>
-      <c r="R2" s="253"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
+      <c r="A2" s="225" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="226"/>
+      <c r="C2" s="262" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="226" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="250" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -10968,109 +11148,109 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>18</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
-        <f>COUNTIF(F28:HJ28,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
-        <f>COUNTIF(F28:HJ28,"F")</f>
+      <c r="A6" s="231">
+        <f>COUNTIF(F28:HN28,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
+        <f>COUNTIF(F28:HN28,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
-        <f>COUNTIF(E27:HJ27,"N")</f>
-        <v>1</v>
+        <f>COUNTIF(E27:HN27,"N")</f>
+        <v>2</v>
       </c>
       <c r="M6" s="101">
-        <f>COUNTIF(E27:HJ27,"A")</f>
-        <v>7</v>
+        <f>COUNTIF(E27:HN27,"A")</f>
+        <v>10</v>
       </c>
       <c r="N6" s="101">
-        <f>COUNTIF(E27:HJ27,"B")</f>
+        <f>COUNTIF(E27:HN27,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
-        <f>COUNTA(E8:HM8)</f>
-        <v>8</v>
-      </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="O6" s="243">
+        <f>COUNTA(E8:HQ8)</f>
+        <v>12</v>
+      </c>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11104,16 +11284,28 @@
       <c r="M8" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="104"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="93"/>
+      <c r="N8" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="104"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="93"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -11126,13 +11318,17 @@
       <c r="K9" s="110"/>
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="149"/>
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -11143,7 +11339,11 @@
       <c r="K10" s="110"/>
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
-      <c r="O10" s="100"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="S10" s="100"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="149"/>
@@ -11159,6 +11359,10 @@
       <c r="K11" s="110"/>
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="149"/>
@@ -11174,11 +11378,15 @@
       <c r="K12" s="110"/>
       <c r="L12" s="110"/>
       <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -11191,20 +11399,24 @@
       <c r="K13" s="110"/>
       <c r="L13" s="110"/>
       <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="149"/>
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
@@ -11212,14 +11424,20 @@
       <c r="K14" s="110"/>
       <c r="L14" s="110"/>
       <c r="M14" s="110"/>
-      <c r="P14" s="100"/>
+      <c r="N14" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="T14" s="100"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106"/>
       <c r="C15" s="107"/>
       <c r="D15" s="108" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E15" s="114"/>
       <c r="F15" s="110"/>
@@ -11229,12 +11447,18 @@
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
       <c r="L15" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M15" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="100"/>
+        <v>83</v>
+      </c>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="T15" s="100"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1">
       <c r="A16" s="149"/>
@@ -11247,22 +11471,28 @@
       <c r="F16" s="110"/>
       <c r="G16" s="110"/>
       <c r="H16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
       <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="110"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
       <c r="D17" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
@@ -11270,19 +11500,25 @@
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
       <c r="J17" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K17" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L17" s="110"/>
       <c r="M17" s="110"/>
-      <c r="N17" s="113"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="113"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.5" customHeight="1">
       <c r="A18" s="149"/>
       <c r="B18" s="106" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C18" s="107"/>
       <c r="D18" s="108"/>
@@ -11295,63 +11531,77 @@
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
       <c r="M18" s="110"/>
-      <c r="N18" s="113"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="113"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="149"/>
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G19" s="110"/>
       <c r="H19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K19" s="110"/>
       <c r="L19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+    </row>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1">
       <c r="A20" s="149"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="191" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H20" s="110"/>
       <c r="I20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J20" s="110"/>
       <c r="K20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L20" s="110"/>
       <c r="M20" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" customHeight="1">
       <c r="A21" s="149"/>
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
+      <c r="D21" s="108" t="s">
+        <v>162</v>
+      </c>
       <c r="E21" s="114"/>
       <c r="F21" s="110"/>
       <c r="G21" s="110"/>
@@ -11361,8 +11611,20 @@
       <c r="K21" s="110"/>
       <c r="L21" s="110"/>
       <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="N21" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="O21" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="149"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -11376,13 +11638,17 @@
       <c r="K22" s="119"/>
       <c r="L22" s="119"/>
       <c r="M22" s="119"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
       <c r="A23" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="127"/>
@@ -11395,56 +11661,74 @@
       <c r="K23" s="110"/>
       <c r="L23" s="110"/>
       <c r="M23" s="110"/>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1">
       <c r="A24" s="151"/>
       <c r="B24" s="125"/>
       <c r="C24" s="128"/>
       <c r="D24" s="127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E24" s="129"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H24" s="110"/>
       <c r="I24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J24" s="110"/>
       <c r="K24" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L24" s="110"/>
       <c r="M24" s="110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="13.5" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" customHeight="1">
       <c r="A25" s="151"/>
       <c r="B25" s="125"/>
       <c r="C25" s="128"/>
       <c r="D25" s="127" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E25" s="129"/>
       <c r="F25" s="110"/>
       <c r="G25" s="110"/>
       <c r="H25" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I25" s="110"/>
       <c r="J25" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K25" s="110"/>
       <c r="L25" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M25" s="110"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="N25" s="110"/>
+      <c r="O25" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
       <c r="A26" s="151"/>
       <c r="B26" s="130"/>
       <c r="C26" s="131"/>
@@ -11458,82 +11742,110 @@
       <c r="K26" s="134"/>
       <c r="L26" s="134"/>
       <c r="M26" s="134"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="134"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
       <c r="A27" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B27" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
       <c r="E27" s="135"/>
       <c r="F27" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L27" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M27" s="136" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.5" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="N27" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1">
       <c r="A28" s="152"/>
-      <c r="B28" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
+      <c r="B28" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
       <c r="E28" s="138"/>
       <c r="F28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L28" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M28" s="139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="13.5" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="N28" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="251"/>
-      <c r="D29" s="251"/>
+      <c r="B29" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
       <c r="E29" s="129"/>
       <c r="F29" s="140">
         <v>39139</v>
@@ -11559,14 +11871,26 @@
       <c r="M29" s="140">
         <v>39145</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="N29" s="140">
+        <v>39146</v>
+      </c>
+      <c r="O29" s="140">
+        <v>39147</v>
+      </c>
+      <c r="P29" s="140">
+        <v>39148</v>
+      </c>
+      <c r="Q29" s="140">
+        <v>39149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
       <c r="A30" s="153"/>
-      <c r="B30" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
+      <c r="B30" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
       <c r="E30" s="141"/>
       <c r="F30" s="142"/>
       <c r="G30" s="142"/>
@@ -11576,14 +11900,18 @@
       <c r="K30" s="142"/>
       <c r="L30" s="142"/>
       <c r="M30" s="142"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" thickTop="1">
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+    </row>
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
       <c r="A31" s="103"/>
       <c r="B31" s="95"/>
       <c r="C31" s="96"/>
       <c r="D31" s="95"/>
     </row>
-    <row r="32" spans="1:14" ht="10.5"/>
+    <row r="32" spans="1:18" ht="10.5"/>
     <row r="33" ht="10.5"/>
   </sheetData>
   <mergeCells count="25">
@@ -11615,13 +11943,13 @@
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:M27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:Q27">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:M28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:Q28">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:M26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:Q26">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -11663,55 +11991,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -11720,88 +12048,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>26</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F26:HF26,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F26:HF26,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E25:HF25,"N")</f>
         <v>1</v>
@@ -11814,15 +12142,15 @@
         <f>COUNTIF(E25:HF25,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -11850,10 +12178,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -11868,7 +12196,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -11902,7 +12230,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -11917,27 +12245,27 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="100"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="149"/>
       <c r="B15" s="106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C15" s="107"/>
       <c r="D15" s="108"/>
@@ -11952,11 +12280,11 @@
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="108" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E16" s="114"/>
       <c r="F16" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
@@ -11972,7 +12300,7 @@
       <c r="E17" s="114"/>
       <c r="F17" s="110"/>
       <c r="G17" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
@@ -11982,13 +12310,13 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110"/>
       <c r="G18" s="110"/>
       <c r="H18" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I18" s="110"/>
     </row>
@@ -11997,14 +12325,14 @@
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
       <c r="D19" s="108" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
       <c r="I19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
@@ -12020,10 +12348,10 @@
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A21" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" s="128"/>
       <c r="D21" s="127"/>
@@ -12038,15 +12366,15 @@
       <c r="B22" s="125"/>
       <c r="C22" s="128"/>
       <c r="D22" s="127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="110"/>
       <c r="G22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I22" s="110"/>
     </row>
@@ -12055,11 +12383,11 @@
       <c r="B23" s="125"/>
       <c r="C23" s="128"/>
       <c r="D23" s="127" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G23" s="110"/>
       <c r="H23" s="110"/>
@@ -12078,55 +12406,55 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A25" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B25" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
       <c r="E25" s="135"/>
       <c r="F25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H25" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I25" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1">
       <c r="A26" s="152"/>
-      <c r="B26" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
+      <c r="B26" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="138"/>
       <c r="F26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I26" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1">
       <c r="A27" s="152"/>
-      <c r="B27" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
+      <c r="B27" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
       <c r="E27" s="129"/>
       <c r="F27" s="140">
         <v>39139</v>
@@ -12143,11 +12471,11 @@
     </row>
     <row r="28" spans="1:9" ht="11.25" thickBot="1">
       <c r="A28" s="153"/>
-      <c r="B28" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
       <c r="E28" s="141"/>
       <c r="F28" s="142"/>
       <c r="G28" s="142"/>
@@ -12212,7 +12540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -12237,55 +12565,55 @@
       <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="267"/>
-      <c r="C2" s="268" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="265"/>
-      <c r="F2" s="267" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="269" t="s">
-        <v>135</v>
-      </c>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="271"/>
+      <c r="A2" s="264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="263"/>
+      <c r="F2" s="265" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="267" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="234" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="239" t="s">
+      <c r="A3" s="232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="233"/>
+      <c r="C3" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
-      <c r="F3" s="257" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="240"/>
-      <c r="N3" s="240"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="255" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
       <c r="O3" s="97"/>
       <c r="P3" s="97"/>
       <c r="Q3" s="97"/>
@@ -12294,88 +12622,88 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="234" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="232" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="235"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="258"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="260">
+      <c r="F4" s="255" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="257"/>
+      <c r="L4" s="258">
         <v>27</v>
       </c>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="261"/>
-      <c r="P4" s="261"/>
-      <c r="Q4" s="261"/>
-      <c r="R4" s="261"/>
-      <c r="S4" s="261"/>
-      <c r="T4" s="262"/>
+      <c r="M4" s="259"/>
+      <c r="N4" s="259"/>
+      <c r="O4" s="259"/>
+      <c r="P4" s="259"/>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="259"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="260"/>
       <c r="V4" s="100"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="242" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="243"/>
-      <c r="C5" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="255" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="244" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="244"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="247" t="s">
+      <c r="A5" s="240" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="244"/>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="244"/>
-      <c r="S5" s="244"/>
-      <c r="T5" s="248"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="253" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="242" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="246"/>
       <c r="V5" s="100"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="233">
+      <c r="A6" s="231">
         <f>COUNTIF(F29:HE29,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="229">
+      <c r="B6" s="230"/>
+      <c r="C6" s="227">
         <f>COUNTIF(F29:HE29,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="229">
+      <c r="D6" s="228"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="227">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="230"/>
-      <c r="I6" s="230"/>
-      <c r="J6" s="230"/>
-      <c r="K6" s="231"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="229"/>
       <c r="L6" s="101">
         <f>COUNTIF(E28:HE28,"N")</f>
         <v>1</v>
@@ -12388,15 +12716,15 @@
         <f>COUNTIF(E28:HE28,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="245">
+      <c r="O6" s="243">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="230"/>
-      <c r="S6" s="230"/>
-      <c r="T6" s="246"/>
+      <c r="P6" s="228"/>
+      <c r="Q6" s="228"/>
+      <c r="R6" s="228"/>
+      <c r="S6" s="228"/>
+      <c r="T6" s="244"/>
       <c r="U6" s="102"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -12421,10 +12749,10 @@
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="148" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="108"/>
@@ -12438,7 +12766,7 @@
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
       <c r="D10" s="108" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E10" s="111"/>
       <c r="F10" s="110"/>
@@ -12469,7 +12797,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="149"/>
       <c r="B13" s="106" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="108"/>
@@ -12483,17 +12811,17 @@
       <c r="B14" s="106"/>
       <c r="C14" s="107"/>
       <c r="D14" s="108" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E14" s="114"/>
       <c r="F14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K14" s="100"/>
     </row>
@@ -12521,7 +12849,7 @@
     <row r="17" spans="1:8" ht="13.5" customHeight="1">
       <c r="A17" s="149"/>
       <c r="B17" s="106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C17" s="107"/>
       <c r="D17" s="108"/>
@@ -12535,11 +12863,11 @@
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
       <c r="D18" s="108" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
@@ -12554,7 +12882,7 @@
       <c r="E19" s="114"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H19" s="110"/>
     </row>
@@ -12563,19 +12891,19 @@
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
       <c r="D20" s="108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="110"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1">
       <c r="A21" s="149"/>
       <c r="B21" s="106" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C21" s="107"/>
       <c r="D21" s="108"/>
@@ -12589,17 +12917,17 @@
       <c r="B22" s="106"/>
       <c r="C22" s="107"/>
       <c r="D22" s="108" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
@@ -12614,10 +12942,10 @@
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A24" s="150" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="127"/>
@@ -12631,15 +12959,15 @@
       <c r="B25" s="125"/>
       <c r="C25" s="128"/>
       <c r="D25" s="127" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E25" s="129"/>
       <c r="F25" s="110"/>
       <c r="G25" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H25" s="110" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1">
@@ -12664,49 +12992,49 @@
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
       <c r="A28" s="150" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="249" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
+        <v>46</v>
+      </c>
+      <c r="B28" s="247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
       <c r="E28" s="135"/>
       <c r="F28" s="136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G28" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H28" s="136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="152"/>
-      <c r="B29" s="250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
+      <c r="B29" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
       <c r="E29" s="138"/>
       <c r="F29" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G29" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H29" s="139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="152"/>
-      <c r="B30" s="251" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="251"/>
+      <c r="B30" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
       <c r="E30" s="129"/>
       <c r="F30" s="140">
         <v>39139</v>
@@ -12720,11 +13048,11 @@
     </row>
     <row r="31" spans="1:8" ht="11.25" thickBot="1">
       <c r="A31" s="153"/>
-      <c r="B31" s="238" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
+      <c r="B31" s="236" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="236"/>
+      <c r="D31" s="236"/>
       <c r="E31" s="141"/>
       <c r="F31" s="142"/>
       <c r="G31" s="142"/>
